--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.08615331209875</v>
+        <v>4.522813</v>
       </c>
       <c r="H2">
-        <v>4.08615331209875</v>
+        <v>13.568439</v>
       </c>
       <c r="I2">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850849</v>
       </c>
       <c r="J2">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850847</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.08615331209875</v>
+        <v>4.522813</v>
       </c>
       <c r="N2">
-        <v>4.08615331209875</v>
+        <v>13.568439</v>
       </c>
       <c r="O2">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850849</v>
       </c>
       <c r="P2">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850847</v>
       </c>
       <c r="Q2">
-        <v>16.69664888997558</v>
+        <v>20.455837432969</v>
       </c>
       <c r="R2">
-        <v>16.69664888997558</v>
+        <v>184.102536896721</v>
       </c>
       <c r="S2">
-        <v>0.3741798416518051</v>
+        <v>0.3233452691781382</v>
       </c>
       <c r="T2">
-        <v>0.3741798416518051</v>
+        <v>0.3233452691781381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.08615331209875</v>
+        <v>4.522813</v>
       </c>
       <c r="H3">
-        <v>4.08615331209875</v>
+        <v>13.568439</v>
       </c>
       <c r="I3">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850849</v>
       </c>
       <c r="J3">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.16377664114239</v>
+        <v>1.319478666666667</v>
       </c>
       <c r="N3">
-        <v>1.16377664114239</v>
+        <v>3.958436</v>
       </c>
       <c r="O3">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="P3">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="Q3">
-        <v>4.755369776747135</v>
+        <v>5.967755266822667</v>
       </c>
       <c r="R3">
-        <v>4.755369776747135</v>
+        <v>53.709797401404</v>
       </c>
       <c r="S3">
-        <v>0.1065700980947935</v>
+        <v>0.09433226283026605</v>
       </c>
       <c r="T3">
-        <v>0.1065700980947935</v>
+        <v>0.09433226283026605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.08615331209875</v>
+        <v>4.522813</v>
       </c>
       <c r="H4">
-        <v>4.08615331209875</v>
+        <v>13.568439</v>
       </c>
       <c r="I4">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850849</v>
       </c>
       <c r="J4">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.43003930557275</v>
+        <v>2.111521333333334</v>
       </c>
       <c r="N4">
-        <v>1.43003930557275</v>
+        <v>6.334564</v>
       </c>
       <c r="O4">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="P4">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="Q4">
-        <v>5.843359844897489</v>
+        <v>9.550016136177335</v>
       </c>
       <c r="R4">
-        <v>5.843359844897489</v>
+        <v>85.950145225596</v>
       </c>
       <c r="S4">
-        <v>0.1309524729115542</v>
+        <v>0.1509570335766807</v>
       </c>
       <c r="T4">
-        <v>0.1309524729115542</v>
+        <v>0.1509570335766806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.16377664114239</v>
+        <v>1.319478666666667</v>
       </c>
       <c r="H5">
-        <v>1.16377664114239</v>
+        <v>3.958436</v>
       </c>
       <c r="I5">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="J5">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.08615331209875</v>
+        <v>4.522813</v>
       </c>
       <c r="N5">
-        <v>4.08615331209875</v>
+        <v>13.568439</v>
       </c>
       <c r="O5">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850849</v>
       </c>
       <c r="P5">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850847</v>
       </c>
       <c r="Q5">
-        <v>4.755369776747135</v>
+        <v>5.967755266822667</v>
       </c>
       <c r="R5">
-        <v>4.755369776747135</v>
+        <v>53.709797401404</v>
       </c>
       <c r="S5">
-        <v>0.1065700980947935</v>
+        <v>0.09433226283026605</v>
       </c>
       <c r="T5">
-        <v>0.1065700980947935</v>
+        <v>0.09433226283026605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,52 +773,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.16377664114239</v>
+        <v>1.319478666666667</v>
       </c>
       <c r="H6">
-        <v>1.16377664114239</v>
+        <v>3.958436</v>
       </c>
       <c r="I6">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="J6">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.16377664114239</v>
+        <v>1.319478666666667</v>
       </c>
       <c r="N6">
-        <v>1.16377664114239</v>
+        <v>3.958436</v>
       </c>
       <c r="O6">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="P6">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="Q6">
-        <v>1.354376070468663</v>
+        <v>1.741023951788444</v>
       </c>
       <c r="R6">
-        <v>1.354376070468663</v>
+        <v>15.669215566096</v>
       </c>
       <c r="S6">
-        <v>0.03035221180755749</v>
+        <v>0.02752035257326115</v>
       </c>
       <c r="T6">
-        <v>0.03035221180755749</v>
+        <v>0.02752035257326116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,52 +835,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.16377664114239</v>
+        <v>1.319478666666667</v>
       </c>
       <c r="H7">
-        <v>1.16377664114239</v>
+        <v>3.958436</v>
       </c>
       <c r="I7">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="J7">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.43003930557275</v>
+        <v>2.111521333333334</v>
       </c>
       <c r="N7">
-        <v>1.43003930557275</v>
+        <v>6.334564</v>
       </c>
       <c r="O7">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="P7">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="Q7">
-        <v>1.664246339741051</v>
+        <v>2.786107353544889</v>
       </c>
       <c r="R7">
-        <v>1.664246339741051</v>
+        <v>25.074966181904</v>
       </c>
       <c r="S7">
-        <v>0.03729655189957184</v>
+        <v>0.04403997808171901</v>
       </c>
       <c r="T7">
-        <v>0.03729655189957184</v>
+        <v>0.04403997808171902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,52 +897,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.43003930557275</v>
+        <v>2.111521333333334</v>
       </c>
       <c r="H8">
-        <v>1.43003930557275</v>
+        <v>6.334564</v>
       </c>
       <c r="I8">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="J8">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.08615331209875</v>
+        <v>4.522813</v>
       </c>
       <c r="N8">
-        <v>4.08615331209875</v>
+        <v>13.568439</v>
       </c>
       <c r="O8">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850849</v>
       </c>
       <c r="P8">
-        <v>0.6117024126581528</v>
+        <v>0.5686345655850847</v>
       </c>
       <c r="Q8">
-        <v>5.843359844897489</v>
+        <v>9.550016136177335</v>
       </c>
       <c r="R8">
-        <v>5.843359844897489</v>
+        <v>85.950145225596</v>
       </c>
       <c r="S8">
-        <v>0.1309524729115542</v>
+        <v>0.1509570335766807</v>
       </c>
       <c r="T8">
-        <v>0.1309524729115542</v>
+        <v>0.1509570335766806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,52 +959,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.43003930557275</v>
+        <v>2.111521333333334</v>
       </c>
       <c r="H9">
-        <v>1.43003930557275</v>
+        <v>6.334564</v>
       </c>
       <c r="I9">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="J9">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.16377664114239</v>
+        <v>1.319478666666667</v>
       </c>
       <c r="N9">
-        <v>1.16377664114239</v>
+        <v>3.958436</v>
       </c>
       <c r="O9">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="P9">
-        <v>0.1742188618019228</v>
+        <v>0.1658925934852462</v>
       </c>
       <c r="Q9">
-        <v>1.664246339741051</v>
+        <v>2.786107353544889</v>
       </c>
       <c r="R9">
-        <v>1.664246339741051</v>
+        <v>25.074966181904</v>
       </c>
       <c r="S9">
-        <v>0.03729655189957184</v>
+        <v>0.04403997808171901</v>
       </c>
       <c r="T9">
-        <v>0.03729655189957184</v>
+        <v>0.04403997808171902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,52 +1021,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.43003930557275</v>
+        <v>2.111521333333334</v>
       </c>
       <c r="H10">
-        <v>1.43003930557275</v>
+        <v>6.334564</v>
       </c>
       <c r="I10">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="J10">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.43003930557275</v>
+        <v>2.111521333333334</v>
       </c>
       <c r="N10">
-        <v>1.43003930557275</v>
+        <v>6.334564</v>
       </c>
       <c r="O10">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="P10">
-        <v>0.2140787255399243</v>
+        <v>0.265472840929669</v>
       </c>
       <c r="Q10">
-        <v>2.045012415482993</v>
+        <v>4.458522341121779</v>
       </c>
       <c r="R10">
-        <v>2.045012415482993</v>
+        <v>40.126701070096</v>
       </c>
       <c r="S10">
-        <v>0.04582970072879822</v>
+        <v>0.07047582927126934</v>
       </c>
       <c r="T10">
-        <v>0.04582970072879822</v>
+        <v>0.07047582927126934</v>
       </c>
     </row>
   </sheetData>
